--- a/ProcessedData/conf_svm_audio_2.xlsx
+++ b/ProcessedData/conf_svm_audio_2.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,16 +405,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.8349181269234597</v>
+        <v>-0.808460901373095</v>
       </c>
       <c r="C2">
-        <v>-0.5194341307401552</v>
+        <v>-0.1007465206448823</v>
       </c>
       <c r="D2">
-        <v>-0.003783124661600148</v>
+        <v>-0.2075250953114929</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,16 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1361595735185157</v>
+        <v>-0.1792059591355045</v>
       </c>
       <c r="C3">
-        <v>-0.3488309463005803</v>
+        <v>0.1397655011603405</v>
       </c>
       <c r="D3">
-        <v>-0.8424991939120645</v>
+        <v>-1.012103049385959</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.024318984794504</v>
+        <v>-1.611291427576156</v>
       </c>
       <c r="C4">
-        <v>0.4305059018918609</v>
+        <v>0.2213775061622414</v>
       </c>
       <c r="D4">
-        <v>-0.4111283407876121</v>
+        <v>0.09384611490111849</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3145615991958131</v>
+        <v>-0.5591167356368116</v>
       </c>
       <c r="C5">
-        <v>-0.1310731725870659</v>
+        <v>0.1798147914604716</v>
       </c>
       <c r="D5">
-        <v>-0.6524377501141001</v>
+        <v>-0.6769628645341569</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1864559170005045</v>
+        <v>-0.176774293211883</v>
       </c>
       <c r="C6">
-        <v>-0.4886622690516645</v>
+        <v>0.01582456304641396</v>
       </c>
       <c r="D6">
-        <v>-0.9265389745896947</v>
+        <v>-0.9011339065663477</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,16 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.15367080756819</v>
+        <v>-0.8920882045270462</v>
       </c>
       <c r="C7">
-        <v>-0.2411860754231748</v>
+        <v>-0.032230514788568</v>
       </c>
       <c r="D7">
-        <v>-0.07189113699309704</v>
+        <v>-0.2532362029828649</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4620342542004409</v>
+        <v>-0.6118403470501178</v>
       </c>
       <c r="C8">
-        <v>-0.2087387488328082</v>
+        <v>0.07293182185393977</v>
       </c>
       <c r="D8">
-        <v>-0.6033510187258233</v>
+        <v>-0.5418281018888347</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4730485125192804</v>
+        <v>-0.294756242202877</v>
       </c>
       <c r="C9">
-        <v>-0.2479839433943022</v>
+        <v>-0.007272453464248881</v>
       </c>
       <c r="D9">
-        <v>-0.4846157761301063</v>
+        <v>-0.7225179911039427</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.7218423483466471</v>
+        <v>-0.7738277023608935</v>
       </c>
       <c r="C10">
-        <v>-0.2150957553871266</v>
+        <v>0.1311073238309286</v>
       </c>
       <c r="D10">
-        <v>-0.5649941703826775</v>
+        <v>-0.5085463850853013</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -567,16 +585,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.9598267970348202</v>
+        <v>-0.8322807707581494</v>
       </c>
       <c r="C11">
-        <v>-0.1095081609902097</v>
+        <v>-0.09196133725275617</v>
       </c>
       <c r="D11">
-        <v>-0.09520286213414292</v>
+        <v>-0.2182397522945954</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.7478366735206639</v>
+        <v>-0.5664875050483378</v>
       </c>
       <c r="C12">
-        <v>-0.03629219654123161</v>
+        <v>0.107593521674575</v>
       </c>
       <c r="D12">
-        <v>-0.6608458925041562</v>
+        <v>-0.6623110790743327</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.210685685213199</v>
+        <v>-0.973672163432995</v>
       </c>
       <c r="C13">
-        <v>0.5433302148156902</v>
+        <v>0.5540257910878275</v>
       </c>
       <c r="D13">
-        <v>-0.8883617873546501</v>
+        <v>-0.7275495574301358</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.631069525607623</v>
+        <v>-1.090295790528623</v>
       </c>
       <c r="C14">
-        <v>0.02523187570034746</v>
+        <v>-0.0194198268799152</v>
       </c>
       <c r="D14">
-        <v>0.003118084396218052</v>
+        <v>-0.04106434133013726</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.101211111405365</v>
+        <v>-0.8365584808918587</v>
       </c>
       <c r="C15">
-        <v>-0.05446013330195176</v>
+        <v>0.01741746938183332</v>
       </c>
       <c r="D15">
-        <v>-0.2629687824574257</v>
+        <v>-0.2832551530091366</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -652,16 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.7190284501298014</v>
+        <v>-0.5841841061781802</v>
       </c>
       <c r="C16">
-        <v>-0.3312682369533957</v>
+        <v>0.05432550398370277</v>
       </c>
       <c r="D16">
-        <v>-0.3098849609139061</v>
+        <v>-0.5332342780977247</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -669,16 +705,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2539163514773981</v>
+        <v>-0.4624267597840033</v>
       </c>
       <c r="C17">
-        <v>-0.3498509814803505</v>
+        <v>0.1184031685954868</v>
       </c>
       <c r="D17">
-        <v>-0.7944166918350448</v>
+        <v>-0.7292913107075079</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3212696243286747</v>
+        <v>-0.2155029762949717</v>
       </c>
       <c r="C18">
-        <v>-0.5867929116213922</v>
+        <v>-0.1423105518338583</v>
       </c>
       <c r="D18">
-        <v>-0.559021278052123</v>
+        <v>-0.6893223978871823</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.013767005200838</v>
+        <v>-0.9108238198729843</v>
       </c>
       <c r="C19">
-        <v>-0.5742389580012898</v>
+        <v>-0.4070332184847831</v>
       </c>
       <c r="D19">
-        <v>0.04210099302263201</v>
+        <v>0.1628167309552337</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-1.235694109901623</v>
+        <v>-0.9036260251486024</v>
       </c>
       <c r="C20">
-        <v>-0.4855040628461451</v>
+        <v>-0.2511069760318615</v>
       </c>
       <c r="D20">
-        <v>0.3576933429777888</v>
+        <v>0.03855371005746422</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1537483210685071</v>
+        <v>-0.5777099614793215</v>
       </c>
       <c r="C21">
-        <v>-1.365401218403526</v>
+        <v>-0.35024300080879</v>
       </c>
       <c r="D21">
-        <v>0.3589587996284569</v>
+        <v>-0.1935865494951106</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5333032088655829</v>
+        <v>0.6089820037405683</v>
       </c>
       <c r="C22">
-        <v>-0.1656823141052254</v>
+        <v>-0.03962867482507147</v>
       </c>
       <c r="D22">
-        <v>-1.73331350035262</v>
+        <v>-1.603884255286504</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.805558549105685</v>
+        <v>-0.9782575633800921</v>
       </c>
       <c r="C23">
-        <v>0.01437364882884884</v>
+        <v>-0.2503238947481351</v>
       </c>
       <c r="D23">
-        <v>0.09637743056503792</v>
+        <v>0.09276823516972543</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.570257817904214</v>
+        <v>-0.4532468567221549</v>
       </c>
       <c r="C24">
-        <v>0.5336285334228206</v>
+        <v>-0.2457917469149037</v>
       </c>
       <c r="D24">
-        <v>-0.4811847300566519</v>
+        <v>-0.3872135049861652</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.939934669837859</v>
+        <v>-0.7208103202895879</v>
       </c>
       <c r="C25">
-        <v>0.5786326298294686</v>
+        <v>-0.4613160040000775</v>
       </c>
       <c r="D25">
-        <v>-0.2977701132304585</v>
+        <v>0.1018136105594867</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,16 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.536466581195001</v>
+        <v>-1.343434526031085</v>
       </c>
       <c r="C26">
-        <v>0.3083333393867166</v>
+        <v>-0.3523054258246178</v>
       </c>
       <c r="D26">
-        <v>0.1952988554300832</v>
+        <v>0.5087673689083254</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -839,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-2.550275588411663</v>
+        <v>-1.199527502771116</v>
       </c>
       <c r="C27">
-        <v>0.4515480000752181</v>
+        <v>-0.3040903118510745</v>
       </c>
       <c r="D27">
-        <v>0.2739536926142512</v>
+        <v>0.3414488647344498</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -856,16 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.766731441983374</v>
+        <v>-0.9227654929201172</v>
       </c>
       <c r="C28">
-        <v>0.1111589504452185</v>
+        <v>-0.3196057419097285</v>
       </c>
       <c r="D28">
-        <v>0.02270769484630802</v>
+        <v>0.1261224437963648</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -873,16 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.72771742152641</v>
+        <v>-1.031464104693768</v>
       </c>
       <c r="C29">
-        <v>0.2921606986177648</v>
+        <v>-0.3357857230571452</v>
       </c>
       <c r="D29">
-        <v>-0.1112712205670336</v>
+        <v>0.2258884156172454</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-2.708186175100737</v>
+        <v>-1.178284503796282</v>
       </c>
       <c r="C30">
-        <v>0.4455993961759155</v>
+        <v>-0.3628595434250521</v>
       </c>
       <c r="D30">
-        <v>0.5892277695400597</v>
+        <v>0.38111605219931</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.207910552415211</v>
+        <v>-0.8485683914386539</v>
       </c>
       <c r="C31">
-        <v>0.3621124651027171</v>
+        <v>-0.3142416254960146</v>
       </c>
       <c r="D31">
-        <v>-0.6083918156008598</v>
+        <v>0.05285377069735775</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-2.2491935583694</v>
+        <v>-1.577044603726869</v>
       </c>
       <c r="C32">
-        <v>-0.1918321998785438</v>
+        <v>-0.4839008955738082</v>
       </c>
       <c r="D32">
-        <v>0.7526986021528559</v>
+        <v>0.8147499685656352</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -941,16 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.755431511115962</v>
+        <v>-1.031553082996733</v>
       </c>
       <c r="C33">
-        <v>0.203247000089025</v>
+        <v>-0.3941930922803068</v>
       </c>
       <c r="D33">
-        <v>-0.1528871758571236</v>
+        <v>0.2888751719171494</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -958,16 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-1.594099462493037</v>
+        <v>-0.8181385588503662</v>
       </c>
       <c r="C34">
-        <v>0.003420728281940288</v>
+        <v>-0.4013065075914171</v>
       </c>
       <c r="D34">
-        <v>-0.1971844131742334</v>
+        <v>0.06800848095932976</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -975,16 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.777653188443287</v>
+        <v>-0.8437166985975029</v>
       </c>
       <c r="C35">
-        <v>0.1959866386397343</v>
+        <v>-0.3349766907289607</v>
       </c>
       <c r="D35">
-        <v>-0.1229733283895067</v>
+        <v>0.03377114393320091</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.896900193482978</v>
+        <v>-1.049065266118604</v>
       </c>
       <c r="C36">
-        <v>0.45057558193435</v>
+        <v>-0.1373429886392395</v>
       </c>
       <c r="D36">
-        <v>-0.08168525596189524</v>
+        <v>0.0421167666879072</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-2.075375902648856</v>
+        <v>-1.145895402005122</v>
       </c>
       <c r="C37">
-        <v>0.07227184706580148</v>
+        <v>-0.3260597151845605</v>
       </c>
       <c r="D37">
-        <v>0.3884619074029716</v>
+        <v>0.364132014623062</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-2.15735595087631</v>
+        <v>-1.19573865676261</v>
       </c>
       <c r="C38">
-        <v>0.4198278132097371</v>
+        <v>-0.2230197094177284</v>
       </c>
       <c r="D38">
-        <v>-0.05523945388469287</v>
+        <v>0.2419024574513919</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.882186634782569</v>
+        <v>-1.197790688258099</v>
       </c>
       <c r="C39">
-        <v>0.2258925059703732</v>
+        <v>-0.2390026870400933</v>
       </c>
       <c r="D39">
-        <v>0.058755068106674</v>
+        <v>0.2525542170150152</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.922862480477832</v>
+        <v>-1.00834056428267</v>
       </c>
       <c r="C40">
-        <v>0.09932860740297078</v>
+        <v>-0.3637126282719738</v>
       </c>
       <c r="D40">
-        <v>0.1309707150647829</v>
+        <v>0.2233180376990906</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.838016072101337</v>
+        <v>-1.090304628906074</v>
       </c>
       <c r="C41">
-        <v>0.7640968953992422</v>
+        <v>-0.06405720930473946</v>
       </c>
       <c r="D41">
-        <v>-0.735126538516</v>
+        <v>0.01584782325213396</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.748274526298604</v>
+        <v>-0.9656206620541088</v>
       </c>
       <c r="C42">
-        <v>-0.1112955807857354</v>
+        <v>-0.3621239733340731</v>
       </c>
       <c r="D42">
-        <v>0.04073343760508463</v>
+        <v>0.1499408454919706</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-2.15637991383184</v>
+        <v>-1.153418444679677</v>
       </c>
       <c r="C43">
-        <v>0.1856624277426687</v>
+        <v>-0.2446134186943354</v>
       </c>
       <c r="D43">
-        <v>0.3034796576248102</v>
+        <v>0.2606175376497624</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-2.176294223161995</v>
+        <v>-1.217756837440881</v>
       </c>
       <c r="C44">
-        <v>0.4409660797759265</v>
+        <v>-0.2065123790899884</v>
       </c>
       <c r="D44">
-        <v>-0.05181309411139663</v>
+        <v>0.2379917638186606</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.689839534465136</v>
+        <v>-0.8697286583932742</v>
       </c>
       <c r="C45">
-        <v>0.1968561817989896</v>
+        <v>-0.3916278749137194</v>
       </c>
       <c r="D45">
-        <v>-0.1930315853412337</v>
+        <v>0.09950546810427752</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,16 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-2.643474863156349</v>
+        <v>-1.665239187926267</v>
       </c>
       <c r="C46">
-        <v>0.4905818259779782</v>
+        <v>-0.3461359840620473</v>
       </c>
       <c r="D46">
-        <v>0.4673120312287473</v>
+        <v>0.7740584130781203</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.533897521735711</v>
+        <v>-0.7859502959441045</v>
       </c>
       <c r="C47">
-        <v>0.008032274668993145</v>
+        <v>-0.452002357942114</v>
       </c>
       <c r="D47">
-        <v>0.01248259794611656</v>
+        <v>0.1155781976563972</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-2.932890244038856</v>
+        <v>-1.951777993810782</v>
       </c>
       <c r="C48">
-        <v>0.07109206079263264</v>
+        <v>-0.1926350579651019</v>
       </c>
       <c r="D48">
-        <v>0.9468791279310922</v>
+        <v>0.86161078584915</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-2.459131465904917</v>
+        <v>-1.074205353664651</v>
       </c>
       <c r="C49">
-        <v>0.1168968114245279</v>
+        <v>-0.596288477359318</v>
       </c>
       <c r="D49">
-        <v>0.6108202505330825</v>
+        <v>0.5640689076784622</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.815335957179372</v>
+        <v>0.4256732187592667</v>
       </c>
       <c r="C50">
-        <v>-1.581153630124279</v>
+        <v>-0.5256445740852194</v>
       </c>
       <c r="D50">
-        <v>-1.407125974199177</v>
+        <v>-1.008522471899341</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.335909619280062</v>
+        <v>0.452096250346539</v>
       </c>
       <c r="C51">
-        <v>-1.215344510984941</v>
+        <v>-0.2933325722051441</v>
       </c>
       <c r="D51">
-        <v>-0.98616847261151</v>
+        <v>-1.210479298753794</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.3505834639620539</v>
+        <v>-0.3525490469789264</v>
       </c>
       <c r="C52">
-        <v>-1.952164642571322</v>
+        <v>-0.6286061172821525</v>
       </c>
       <c r="D52">
-        <v>0.5724970472646153</v>
+        <v>-0.1224093684328122</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7470310562933016</v>
+        <v>-0.09118708999923814</v>
       </c>
       <c r="C53">
-        <v>-1.790050695243632</v>
+        <v>-0.6550098791133953</v>
       </c>
       <c r="D53">
-        <v>0.1202333129384663</v>
+        <v>-0.3229056934801441</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6957522880080611</v>
+        <v>-0.1825613763328728</v>
       </c>
       <c r="C54">
-        <v>-1.898771549704437</v>
+        <v>-0.6599683139171354</v>
       </c>
       <c r="D54">
-        <v>0.3661834172792908</v>
+        <v>-0.2368461705397528</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.457821152648812</v>
+        <v>0.3120151025903544</v>
       </c>
       <c r="C55">
-        <v>-1.483740682567849</v>
+        <v>-0.5629557291281261</v>
       </c>
       <c r="D55">
-        <v>-1.323826519219526</v>
+        <v>-0.8331862039130135</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.890177196054424</v>
+        <v>0.5175730553868124</v>
       </c>
       <c r="C56">
-        <v>-1.911215839857294</v>
+        <v>-0.6419277420460724</v>
       </c>
       <c r="D56">
-        <v>-1.267449915610502</v>
+        <v>-0.9146764017669321</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.341326428934891</v>
+        <v>0.03578517371845041</v>
       </c>
       <c r="C57">
-        <v>-2.051122692908538</v>
+        <v>-0.7027010479880763</v>
       </c>
       <c r="D57">
-        <v>-0.3017325082823498</v>
+        <v>-0.4033161578182728</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.44086250286658</v>
+        <v>0.46415663658961</v>
       </c>
       <c r="C58">
-        <v>-1.40772068772943</v>
+        <v>-0.3490413357861495</v>
       </c>
       <c r="D58">
-        <v>-0.8463494632929739</v>
+        <v>-1.150955803778081</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.027899891514237</v>
+        <v>0.1177015319886346</v>
       </c>
       <c r="C59">
-        <v>-1.338938025509152</v>
+        <v>-0.2956813259080441</v>
       </c>
       <c r="D59">
-        <v>-0.8603577079835093</v>
+        <v>-0.9124249851740025</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.800795267305755</v>
+        <v>0.7102073648236532</v>
       </c>
       <c r="C60">
-        <v>-2.42614410625808</v>
+        <v>-0.8455092059033765</v>
       </c>
       <c r="D60">
-        <v>-1.086879574918906</v>
+        <v>-0.8918986811914948</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.389016888301534</v>
+        <v>0.3180518197071173</v>
       </c>
       <c r="C61">
-        <v>-2.007206868795207</v>
+        <v>-0.8035960400808974</v>
       </c>
       <c r="D61">
-        <v>-0.4402056378820962</v>
+        <v>-0.556533861291105</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.524855246124689</v>
+        <v>0.2724697880969562</v>
       </c>
       <c r="C62">
-        <v>-1.548711530545125</v>
+        <v>-0.396210443645241</v>
       </c>
       <c r="D62">
-        <v>-1.048588521335349</v>
+        <v>-0.9466445929161953</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.073415906706635</v>
+        <v>0.4581096141240618</v>
       </c>
       <c r="C63">
-        <v>-1.22303074691299</v>
+        <v>-0.4788094699592191</v>
       </c>
       <c r="D63">
-        <v>-1.113738350260448</v>
+        <v>-1.004371250392731</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.292646473968591</v>
+        <v>0.3997931619996491</v>
       </c>
       <c r="C64">
-        <v>-1.337629236320739</v>
+        <v>-0.3716349910139691</v>
       </c>
       <c r="D64">
-        <v>-0.8421470370436196</v>
+        <v>-1.046355035810451</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7943982014086979</v>
+        <v>0.3487516278830092</v>
       </c>
       <c r="C65">
-        <v>-0.08871654461006051</v>
+        <v>0.1287629302357434</v>
       </c>
       <c r="D65">
-        <v>-1.645512323025942</v>
+        <v>-1.513714449839092</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.094899757061718</v>
+        <v>0.3672845572184159</v>
       </c>
       <c r="C66">
-        <v>-1.78712311903513</v>
+        <v>-0.8075820772842642</v>
       </c>
       <c r="D66">
-        <v>-0.7301729988865714</v>
+        <v>-0.6066363857263778</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.3922601923518444</v>
+        <v>-0.2699954958250627</v>
       </c>
       <c r="C67">
-        <v>-1.716297404158084</v>
+        <v>-0.4215860865261028</v>
       </c>
       <c r="D67">
-        <v>-0.5148234377286812</v>
+        <v>-0.4292152692281141</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.676760264786554</v>
+        <v>0.4385363482514272</v>
       </c>
       <c r="C68">
-        <v>-1.931212650727809</v>
+        <v>-0.7126411549857642</v>
       </c>
       <c r="D68">
-        <v>-0.6766161648613016</v>
+        <v>-0.7472110072477389</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.007145601086038</v>
+        <v>0.2673446964793771</v>
       </c>
       <c r="C69">
-        <v>-1.424291044634703</v>
+        <v>-0.5049152878182995</v>
       </c>
       <c r="D69">
-        <v>-0.5151729460805643</v>
+        <v>-0.7630522589562012</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.008401435602028</v>
+        <v>0.5466417717316876</v>
       </c>
       <c r="C70">
-        <v>-1.727801405846452</v>
+        <v>-0.3905259458984692</v>
       </c>
       <c r="D70">
-        <v>-1.029897608061163</v>
+        <v>-1.193390502136134</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.055178908617257</v>
+        <v>0.4056121713038534</v>
       </c>
       <c r="C71">
-        <v>-1.228339753561883</v>
+        <v>-0.4103059185104597</v>
       </c>
       <c r="D71">
-        <v>-1.113040131371431</v>
+        <v>-0.980662488364876</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.006235482845602</v>
+        <v>-0.05561290375966732</v>
       </c>
       <c r="C72">
-        <v>-1.929089504380299</v>
+        <v>-0.5447098602036692</v>
       </c>
       <c r="D72">
-        <v>-0.2598664536548677</v>
+        <v>-0.4628585407475646</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.167305929846298</v>
+        <v>0.3596888968302618</v>
       </c>
       <c r="C73">
-        <v>-1.308148108476141</v>
+        <v>-0.6363664626534725</v>
       </c>
       <c r="D73">
-        <v>-0.7756020019781462</v>
+        <v>-0.7182928091601621</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.4121793531746059</v>
+        <v>-0.1526887052173471</v>
       </c>
       <c r="C74">
-        <v>-1.511658837692202</v>
+        <v>-0.380140805355683</v>
       </c>
       <c r="D74">
-        <v>-0.1203684823764434</v>
+        <v>-0.5643341369922155</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.351195472820111</v>
+        <v>0.593984173764794</v>
       </c>
       <c r="C75">
-        <v>-1.214148241088003</v>
+        <v>-0.1676391760739711</v>
       </c>
       <c r="D75">
-        <v>-1.144812563664274</v>
+        <v>-1.457677294214178</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.171779955944235</v>
+        <v>0.2660778470242585</v>
       </c>
       <c r="C76">
-        <v>-1.359821264251078</v>
+        <v>-0.413464348075853</v>
       </c>
       <c r="D76">
-        <v>-0.8946491935707622</v>
+        <v>-0.8913713405416464</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.708923072218566</v>
+        <v>0.3551785178500755</v>
       </c>
       <c r="C77">
-        <v>-1.679103072059862</v>
+        <v>-0.7569681550785042</v>
       </c>
       <c r="D77">
-        <v>-1.034017131443262</v>
+        <v>-0.5950051654335342</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.063424230380013</v>
+        <v>0.5010199245139842</v>
       </c>
       <c r="C78">
-        <v>-1.000436249898561</v>
+        <v>-0.6511488609427984</v>
       </c>
       <c r="D78">
-        <v>-1.826916130252473</v>
+        <v>-0.8468971843677489</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1723,16 +1945,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.4052216904190968</v>
+        <v>-0.568057726133635</v>
       </c>
       <c r="C79">
-        <v>-1.578249595228889</v>
+        <v>-0.4440917478236371</v>
       </c>
       <c r="D79">
-        <v>-0.2684727887846511</v>
+        <v>-0.1592002043784346</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.477559630548508</v>
+        <v>0.159673185185998</v>
       </c>
       <c r="C80">
-        <v>-1.722348965431543</v>
+        <v>-0.508308037935941</v>
       </c>
       <c r="D80">
-        <v>-0.8116645350832387</v>
+        <v>-0.7292409266202913</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.7884522572508433</v>
+        <v>-0.8687867228379824</v>
       </c>
       <c r="C81">
-        <v>-0.8198860481011412</v>
+        <v>-0.2351264365874318</v>
       </c>
       <c r="D81">
-        <v>-0.06580556861950131</v>
+        <v>-0.05177368845089614</v>
+      </c>
+      <c r="E81">
+        <v>12</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -1774,16 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.7857166410010287</v>
+        <v>-0.715020146301846</v>
       </c>
       <c r="C82">
-        <v>-0.901404406977979</v>
+        <v>-0.1237759450247188</v>
       </c>
       <c r="D82">
-        <v>0.05597406243651507</v>
+        <v>-0.2656383098115046</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7648398523541318</v>
+        <v>0.1296456022154041</v>
       </c>
       <c r="C83">
-        <v>-2.003018815169902</v>
+        <v>-0.7573988349539578</v>
       </c>
       <c r="D83">
-        <v>-0.3580150755117705</v>
+        <v>-0.4636152021455444</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.100917847040552</v>
+        <v>0.4616415106126214</v>
       </c>
       <c r="C84">
-        <v>-1.532484903797557</v>
+        <v>-0.7772342184111246</v>
       </c>
       <c r="D84">
-        <v>-0.8706220214355979</v>
+        <v>-0.6968452374692328</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.201457389739179</v>
+        <v>0.6498131417443767</v>
       </c>
       <c r="C85">
-        <v>-1.733428605768417</v>
+        <v>-0.4066894520798744</v>
       </c>
       <c r="D85">
-        <v>-1.230698282687928</v>
+        <v>-1.288749505175413</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.405363320231314</v>
+        <v>0.3037968749928191</v>
       </c>
       <c r="C86">
-        <v>-1.696331130953531</v>
+        <v>-0.5882468106774967</v>
       </c>
       <c r="D86">
-        <v>-0.8756255575227772</v>
+        <v>-0.7139931174504035</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.376736792866284</v>
+        <v>0.3795019615191796</v>
       </c>
       <c r="C87">
-        <v>-1.042561590374039</v>
+        <v>-0.5592547520027922</v>
       </c>
       <c r="D87">
-        <v>-1.449471739937781</v>
+        <v>-0.8564370187445813</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.451472417322804</v>
+        <v>1.047414939479288</v>
       </c>
       <c r="C88">
-        <v>-1.749270919494925</v>
+        <v>-0.398498195784299</v>
       </c>
       <c r="D88">
-        <v>-1.749038758178339</v>
+        <v>-1.655919382474013</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.580254650758369</v>
+        <v>0.6808451683177733</v>
       </c>
       <c r="C89">
-        <v>-1.275369938825689</v>
+        <v>-0.2639706784937698</v>
       </c>
       <c r="D89">
-        <v>-1.366322030396414</v>
+        <v>-1.433939745987262</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7863865212634171</v>
+        <v>0.2596637061628569</v>
       </c>
       <c r="C90">
-        <v>-1.578438748044781</v>
+        <v>-0.7526419176477083</v>
       </c>
       <c r="D90">
-        <v>-0.9372685155985229</v>
+        <v>-0.5750489877392423</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5749329674074604</v>
+        <v>0.01567969979987932</v>
       </c>
       <c r="C91">
-        <v>-0.9112322605660386</v>
+        <v>-0.3449075718073297</v>
       </c>
       <c r="D91">
-        <v>-1.185561718461705</v>
+        <v>-0.7461809002802762</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.208743426143624</v>
+        <v>0.5962068276766723</v>
       </c>
       <c r="C92">
-        <v>0.6791196038709526</v>
+        <v>-0.1688264287978226</v>
       </c>
       <c r="D92">
-        <v>-2.643560269127006</v>
+        <v>-1.393446835079238</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -1961,16 +2225,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5235459417088921</v>
+        <v>0.2205486424324852</v>
       </c>
       <c r="C93">
-        <v>0.5354678776308484</v>
+        <v>-0.1957318525936272</v>
       </c>
       <c r="D93">
-        <v>-1.868429660175569</v>
+        <v>-1.018894412056661</v>
+      </c>
+      <c r="E93">
+        <v>13</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1978,16 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4831991981614161</v>
+        <v>0.3362563216231875</v>
       </c>
       <c r="C94">
-        <v>0.6776066949905548</v>
+        <v>-0.1707579031037996</v>
       </c>
       <c r="D94">
-        <v>-2.238076256750618</v>
+        <v>-1.192314768176343</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6703213343022083</v>
+        <v>0.3120254208492327</v>
       </c>
       <c r="C95">
-        <v>0.2398419310536894</v>
+        <v>-0.3214736525967443</v>
       </c>
       <c r="D95">
-        <v>-1.846519811686576</v>
+        <v>-0.9785979997383556</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6667129578799242</v>
+        <v>0.4815684210573443</v>
       </c>
       <c r="C96">
-        <v>0.1841708426022152</v>
+        <v>-0.39661745638152</v>
       </c>
       <c r="D96">
-        <v>-1.936912285027091</v>
+        <v>-1.062149981936936</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-1.680913984742348</v>
+        <v>-0.4383491989638966</v>
       </c>
       <c r="C97">
-        <v>1.320959567972322</v>
+        <v>0.3365096037888713</v>
       </c>
       <c r="D97">
-        <v>-1.09125433500965</v>
+        <v>-0.9879195938244301</v>
+      </c>
+      <c r="E97">
+        <v>13</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8106212595106908</v>
+        <v>0.4538350911320805</v>
       </c>
       <c r="C98">
-        <v>-0.1378848113702673</v>
+        <v>-0.5222008213718241</v>
       </c>
       <c r="D98">
-        <v>-1.376511479104274</v>
+        <v>-0.8822868553069479</v>
+      </c>
+      <c r="E98">
+        <v>13</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4657183763471247</v>
+        <v>0.116460247975372</v>
       </c>
       <c r="C99">
-        <v>0.3783999083578814</v>
+        <v>-0.2612313690994204</v>
       </c>
       <c r="D99">
-        <v>-1.719843447950933</v>
+        <v>-0.9205630328406863</v>
+      </c>
+      <c r="E99">
+        <v>13</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.3388905775190617</v>
+        <v>0.3827783215342141</v>
       </c>
       <c r="C100">
-        <v>0.2162393312132745</v>
+        <v>-0.478558182364703</v>
       </c>
       <c r="D100">
-        <v>-1.577474010122687</v>
+        <v>-0.8721396118695334</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7737221501965799</v>
+        <v>0.4515064074163826</v>
       </c>
       <c r="C101">
-        <v>0.3772146236983672</v>
+        <v>-0.4664212633194354</v>
       </c>
       <c r="D101">
-        <v>-1.913703529842964</v>
+        <v>-0.9160660145791988</v>
+      </c>
+      <c r="E101">
+        <v>13</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.6790644155373252</v>
+        <v>-0.194873960863757</v>
       </c>
       <c r="C102">
-        <v>0.543152390343886</v>
+        <v>-0.1034870899014976</v>
       </c>
       <c r="D102">
-        <v>-1.006329102962372</v>
+        <v>-0.7884385243999397</v>
+      </c>
+      <c r="E102">
+        <v>13</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5189379979325976</v>
+        <v>0.2096368192812766</v>
       </c>
       <c r="C103">
-        <v>-0.0558407465469386</v>
+        <v>-0.3705150177985503</v>
       </c>
       <c r="D103">
-        <v>-1.524586354218002</v>
+        <v>-0.8644925835544081</v>
+      </c>
+      <c r="E103">
+        <v>13</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.2785995887659181</v>
+        <v>0.3086627961469264</v>
       </c>
       <c r="C104">
-        <v>0.1460041497081483</v>
+        <v>-0.415251836822109</v>
       </c>
       <c r="D104">
-        <v>-1.56455273393406</v>
+        <v>-0.8861112906589113</v>
+      </c>
+      <c r="E104">
+        <v>13</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.05949718145892802</v>
+        <v>-0.1271195659530266</v>
       </c>
       <c r="C105">
-        <v>0.591797213784671</v>
+        <v>-0.1549410677132654</v>
       </c>
       <c r="D105">
-        <v>-1.572909478482994</v>
+        <v>-0.7553416124392471</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.2627919036402698</v>
+        <v>0.04016270517295736</v>
       </c>
       <c r="C106">
-        <v>0.1402753555585909</v>
+        <v>-0.3109125417853946</v>
       </c>
       <c r="D106">
-        <v>-1.44617449673847</v>
+        <v>-0.7739711968276315</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2199,16 +2505,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.4206888271141431</v>
+        <v>0.07263613434119126</v>
       </c>
       <c r="C107">
-        <v>0.4544127563801772</v>
+        <v>-0.5263951466166895</v>
       </c>
       <c r="D107">
-        <v>-1.741358773943109</v>
+        <v>-0.5597211953000518</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2216,16 +2525,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.2741247047982031</v>
+        <v>-0.6385667429975774</v>
       </c>
       <c r="C108">
-        <v>0.282250725814665</v>
+        <v>-0.3624778741238572</v>
       </c>
       <c r="D108">
-        <v>-1.052512848030164</v>
+        <v>-0.1030358050136047</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.4371549658984322</v>
+        <v>0.1323377429849406</v>
       </c>
       <c r="C109">
-        <v>0.1444736609632045</v>
+        <v>-0.3918613663527669</v>
       </c>
       <c r="D109">
-        <v>-1.234005935754731</v>
+        <v>-0.7013411465083851</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.4952755293600098</v>
+        <v>-0.2486758377838085</v>
       </c>
       <c r="C110">
-        <v>0.7147725401212555</v>
+        <v>-0.1378250562684987</v>
       </c>
       <c r="D110">
-        <v>-1.765492389053122</v>
+        <v>-0.7323294878937925</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.8452833930908977</v>
+        <v>-0.5665843096761198</v>
       </c>
       <c r="C111">
-        <v>0.9012294185415972</v>
+        <v>-0.1128316809777135</v>
       </c>
       <c r="D111">
-        <v>-1.044652100068696</v>
+        <v>-0.3920472473608759</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.000997837166105</v>
+        <v>0.1543340543017264</v>
       </c>
       <c r="C112">
-        <v>0.1565255219015204</v>
+        <v>-0.2628126078707507</v>
       </c>
       <c r="D112">
-        <v>-1.825394776252416</v>
+        <v>-0.9200480548331448</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7135611808271904</v>
+        <v>0.2458922157757119</v>
       </c>
       <c r="C113">
-        <v>0.07287939711109426</v>
+        <v>-0.3771509909701096</v>
       </c>
       <c r="D113">
-        <v>-1.770319760805858</v>
+        <v>-0.8649547831348561</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.4241004824496528</v>
+        <v>-0.3672494452083317</v>
       </c>
       <c r="C114">
-        <v>0.5614674802935011</v>
+        <v>-0.1782100921366085</v>
       </c>
       <c r="D114">
-        <v>-1.064885268648804</v>
+        <v>-0.5035857954493356</v>
+      </c>
+      <c r="E114">
+        <v>13</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -2335,16 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.2324304279222659</v>
+        <v>-0.1466854969191879</v>
       </c>
       <c r="C115">
-        <v>0.5704447808280237</v>
+        <v>-0.3861649648506567</v>
       </c>
       <c r="D115">
-        <v>-1.336925002747692</v>
+        <v>-0.5166257808959521</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.576179682345732</v>
+        <v>-0.1836310478666726</v>
       </c>
       <c r="C116">
-        <v>1.221978576943339</v>
+        <v>0.04763362903398508</v>
       </c>
       <c r="D116">
-        <v>-1.560915319080198</v>
+        <v>-0.9240686899050632</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2369,16 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.2123893873583275</v>
+        <v>0.02649836139133094</v>
       </c>
       <c r="C117">
-        <v>0.4487032934505057</v>
+        <v>-0.2504264613717577</v>
       </c>
       <c r="D117">
-        <v>-1.636208600126256</v>
+        <v>-0.8043911947672302</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9282446237530853</v>
+        <v>-0.03405570421408177</v>
       </c>
       <c r="C118">
-        <v>0.02562926534071752</v>
+        <v>-0.1695562009955077</v>
       </c>
       <c r="D118">
-        <v>-1.320524072325719</v>
+        <v>-0.9060918991820434</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.9158106058510445</v>
+        <v>-0.5354032321797317</v>
       </c>
       <c r="C119">
-        <v>0.4999788067219708</v>
+        <v>-0.1798642997430717</v>
       </c>
       <c r="D119">
-        <v>-0.9452481650349219</v>
+        <v>-0.350315676676761</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2420,16 +2765,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.650680434921117</v>
+        <v>-0.5888738181651599</v>
       </c>
       <c r="C120">
-        <v>-0.02588909092956893</v>
+        <v>-0.5387649526188558</v>
       </c>
       <c r="D120">
-        <v>-0.197256920215177</v>
+        <v>0.04722108845429873</v>
+      </c>
+      <c r="E120">
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.3174836361959047</v>
+        <v>0.6431529004677847</v>
       </c>
       <c r="C121">
-        <v>0.03233745524146425</v>
+        <v>-0.6951486290931804</v>
       </c>
       <c r="D121">
-        <v>-1.156322194937974</v>
+        <v>-0.8712905171678443</v>
+      </c>
+      <c r="E121">
+        <v>13</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.82754778095225</v>
+        <v>0.3732804525160274</v>
       </c>
       <c r="C122">
-        <v>-0.07091510423169084</v>
+        <v>-0.5338427688002211</v>
       </c>
       <c r="D122">
-        <v>-1.834520621854327</v>
+        <v>-0.878477351284318</v>
+      </c>
+      <c r="E122">
+        <v>13</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1927100581102936</v>
+        <v>-0.09448194226816636</v>
       </c>
       <c r="C123">
-        <v>0.01417292924853519</v>
+        <v>-0.3343372477897401</v>
       </c>
       <c r="D123">
-        <v>-1.045875103754346</v>
+        <v>-0.6505786765806827</v>
+      </c>
+      <c r="E123">
+        <v>13</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2488,16 +2845,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.4367195034389137</v>
+        <v>0.3303821335595424</v>
       </c>
       <c r="C124">
-        <v>0.7323722419465741</v>
+        <v>-0.1235189391752027</v>
       </c>
       <c r="D124">
-        <v>-2.264900833782604</v>
+        <v>-1.231851188243356</v>
+      </c>
+      <c r="E124">
+        <v>13</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.3225078428992495</v>
+        <v>0.1503395445475999</v>
       </c>
       <c r="C125">
-        <v>0.1260650908821447</v>
+        <v>-0.242347128126964</v>
       </c>
       <c r="D125">
-        <v>-1.33753478785771</v>
+        <v>-0.9343950722209134</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.7126111961028514</v>
+        <v>0.3015319792427748</v>
       </c>
       <c r="C126">
-        <v>-0.130582452590419</v>
+        <v>-0.5601440272599285</v>
       </c>
       <c r="D126">
-        <v>-1.465420354357477</v>
+        <v>-0.7811071187634443</v>
+      </c>
+      <c r="E126">
+        <v>13</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5642112056308533</v>
+        <v>0.2113116406861045</v>
       </c>
       <c r="C127">
-        <v>0.3845285637693078</v>
+        <v>-0.2809924952042785</v>
       </c>
       <c r="D127">
-        <v>-1.86813523415104</v>
+        <v>-0.9406931037338075</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1887865795534885</v>
+        <v>-0.4749789760046959</v>
       </c>
       <c r="C128">
-        <v>0.01853910280806648</v>
+        <v>-0.465967704422934</v>
       </c>
       <c r="D128">
-        <v>-1.140144107423138</v>
+        <v>-0.190111703017702</v>
+      </c>
+      <c r="E128">
+        <v>13</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5247024603365764</v>
+        <v>0.2615955413254266</v>
       </c>
       <c r="C129">
-        <v>0.104120676509453</v>
+        <v>-0.528765452300339</v>
       </c>
       <c r="D129">
-        <v>-1.636181031337497</v>
+        <v>-0.766522121584019</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -2590,16 +2965,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.2933659819001241</v>
+        <v>0.002099525886269493</v>
       </c>
       <c r="C130">
-        <v>0.5595848152330729</v>
+        <v>-0.2416747378371857</v>
       </c>
       <c r="D130">
-        <v>-1.277383929499297</v>
+        <v>-0.8085131270159407</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.03483762507783383</v>
+        <v>0.1289864579701045</v>
       </c>
       <c r="C131">
-        <v>0.6111473116187662</v>
+        <v>-0.3571987835997066</v>
       </c>
       <c r="D131">
-        <v>-1.744619734167375</v>
+        <v>-0.7805064624574707</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1164235651650201</v>
+        <v>0.1744578799143108</v>
       </c>
       <c r="C132">
-        <v>0.384713230701876</v>
+        <v>-0.5101708794626438</v>
       </c>
       <c r="D132">
-        <v>-1.582470909883407</v>
+        <v>-0.6929921464943021</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.2528869006575271</v>
+        <v>-0.03830095074587109</v>
       </c>
       <c r="C133">
-        <v>1.162649961331958</v>
+        <v>-0.06137650337623805</v>
       </c>
       <c r="D133">
-        <v>-1.879790077679352</v>
+        <v>-0.9256315693485446</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.9507066780940686</v>
+        <v>-0.4167569961294936</v>
       </c>
       <c r="C134">
-        <v>1.340297631774467</v>
+        <v>0.1202946246015625</v>
       </c>
       <c r="D134">
-        <v>-1.418208462174043</v>
+        <v>-0.7059378313110484</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.06429494914393674</v>
+        <v>-0.3668295010980537</v>
       </c>
       <c r="C135">
-        <v>0.4832768433319692</v>
+        <v>-0.07588474234066228</v>
       </c>
       <c r="D135">
-        <v>-1.863235326406746</v>
+        <v>-0.6199604417698591</v>
+      </c>
+      <c r="E135">
+        <v>13</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,16 +3085,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4147691391576518</v>
+        <v>-0.115875783410826</v>
       </c>
       <c r="C136">
-        <v>0.4481992092401599</v>
+        <v>-0.1510830438918215</v>
       </c>
       <c r="D136">
-        <v>-1.870292348448075</v>
+        <v>-0.8638541361063053</v>
+      </c>
+      <c r="E136">
+        <v>13</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.2091898375339374</v>
+        <v>0.205297000408874</v>
       </c>
       <c r="C137">
-        <v>0.4012451086960092</v>
+        <v>-0.4197924571324013</v>
       </c>
       <c r="D137">
-        <v>-1.52268684881881</v>
+        <v>-0.7856344965145234</v>
+      </c>
+      <c r="E137">
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9187675634352437</v>
+        <v>0.4265072526876403</v>
       </c>
       <c r="C138">
-        <v>0.2883304584409681</v>
+        <v>-0.1804487698806426</v>
       </c>
       <c r="D138">
-        <v>-2.00888691395869</v>
+        <v>-1.218831392126521</v>
+      </c>
+      <c r="E138">
+        <v>13</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -2743,16 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.03217400759484879</v>
+        <v>0.1418890978463873</v>
       </c>
       <c r="C139">
-        <v>0.7149691821181976</v>
+        <v>-0.1680971095943417</v>
       </c>
       <c r="D139">
-        <v>-1.772870036050135</v>
+        <v>-1.001960376642295</v>
+      </c>
+      <c r="E139">
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.292096635987183</v>
+        <v>0.5310443477063654</v>
       </c>
       <c r="C140">
-        <v>-0.7653205808536379</v>
+        <v>-0.2385103208370705</v>
       </c>
       <c r="D140">
-        <v>-1.304806618007886</v>
+        <v>-1.248713945001823</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.673464113138728</v>
+        <v>0.6788810868944813</v>
       </c>
       <c r="C141">
-        <v>-0.4374989944245622</v>
+        <v>-0.5450436041002195</v>
       </c>
       <c r="D141">
-        <v>-1.706656137156652</v>
+        <v>-1.075887132116035</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9888975647161375</v>
+        <v>0.293740175699627</v>
       </c>
       <c r="C142">
-        <v>-0.5132535067859083</v>
+        <v>-0.4176789054232243</v>
       </c>
       <c r="D142">
-        <v>-1.569342428833077</v>
+        <v>-0.8737141424314598</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.292954678993479</v>
+        <v>0.2011291093927191</v>
       </c>
       <c r="C143">
-        <v>-0.7201408273491715</v>
+        <v>-0.559876244285902</v>
       </c>
       <c r="D143">
-        <v>-0.668762840475407</v>
+        <v>-0.6304035181471541</v>
+      </c>
+      <c r="E143">
+        <v>14</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.106154608537897</v>
+        <v>0.4598251178093913</v>
       </c>
       <c r="C144">
-        <v>-0.3860354734517699</v>
+        <v>-0.3742472690405869</v>
       </c>
       <c r="D144">
-        <v>-1.411065712203652</v>
+        <v>-1.078277782178576</v>
+      </c>
+      <c r="E144">
+        <v>14</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.514799767814774</v>
+        <v>0.4997621093354221</v>
       </c>
       <c r="C145">
-        <v>-0.9114616868713916</v>
+        <v>-0.519455759982537</v>
       </c>
       <c r="D145">
-        <v>-1.270156332826779</v>
+        <v>-0.8949821613212025</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.372044099609435</v>
+        <v>0.6607491885556565</v>
       </c>
       <c r="C146">
-        <v>-0.7772252225373856</v>
+        <v>-0.6383904557646475</v>
       </c>
       <c r="D146">
-        <v>-1.28387202292672</v>
+        <v>-0.9519789001070217</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.178305175797938</v>
+        <v>0.3754472235588902</v>
       </c>
       <c r="C147">
-        <v>-0.9065857263321349</v>
+        <v>-0.5846288432896944</v>
       </c>
       <c r="D147">
-        <v>-0.899256180368591</v>
+        <v>-0.7179808519820908</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.013696428378625</v>
+        <v>0.03107302584153976</v>
       </c>
       <c r="C148">
-        <v>-0.125658591791361</v>
+        <v>-0.2087929721428833</v>
       </c>
       <c r="D148">
-        <v>-0.9988503934951455</v>
+        <v>-0.7424069985222308</v>
+      </c>
+      <c r="E148">
+        <v>14</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.373325866068248</v>
+        <v>0.3369204146147028</v>
       </c>
       <c r="C149">
-        <v>-0.751664149837392</v>
+        <v>-0.5325878441823556</v>
       </c>
       <c r="D149">
-        <v>-1.347883507977414</v>
+        <v>-0.8106836245092897</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.258111540270144</v>
+        <v>0.4463900779688179</v>
       </c>
       <c r="C150">
-        <v>-0.959247792355177</v>
+        <v>-0.5262124062926385</v>
       </c>
       <c r="D150">
-        <v>-0.9625093069751927</v>
+        <v>-0.9058967976376266</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.6566565109512186</v>
+        <v>0.1564603379511789</v>
       </c>
       <c r="C151">
-        <v>-0.275620398099829</v>
+        <v>-0.4363329119563036</v>
       </c>
       <c r="D151">
-        <v>-1.174160961837062</v>
+        <v>-0.714008236080292</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -2964,16 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.2538899599069454</v>
+        <v>-0.2644648824220834</v>
       </c>
       <c r="C152">
-        <v>-0.257858978372106</v>
+        <v>-0.2520084788985972</v>
       </c>
       <c r="D152">
-        <v>-0.3341208675104512</v>
+        <v>-0.4331222741896001</v>
+      </c>
+      <c r="E152">
+        <v>14</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7892554209316747</v>
+        <v>0.09686355926785861</v>
       </c>
       <c r="C153">
-        <v>-0.4411257203309242</v>
+        <v>-0.2715233235299858</v>
       </c>
       <c r="D153">
-        <v>-1.039684857702005</v>
+        <v>-0.8708540913360148</v>
+      </c>
+      <c r="E153">
+        <v>14</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.1124779742081438</v>
+        <v>-0.305089459926854</v>
       </c>
       <c r="C154">
-        <v>-0.2313791512894605</v>
+        <v>-0.6181051210940814</v>
       </c>
       <c r="D154">
-        <v>-0.07097625306694805</v>
+        <v>-0.07063005132056088</v>
+      </c>
+      <c r="E154">
+        <v>14</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.2447233478270557</v>
+        <v>0.2313397442444758</v>
       </c>
       <c r="C155">
-        <v>-0.05827022801286186</v>
+        <v>-0.3844725360521389</v>
       </c>
       <c r="D155">
-        <v>-1.147006819720395</v>
+        <v>-0.8504580035322338</v>
+      </c>
+      <c r="E155">
+        <v>14</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.071345216811939</v>
+        <v>0.1457517469826186</v>
       </c>
       <c r="C156">
-        <v>-0.7836307607299732</v>
+        <v>-0.4515306557694844</v>
       </c>
       <c r="D156">
-        <v>-1.012980352773057</v>
+        <v>-0.7008178095693548</v>
+      </c>
+      <c r="E156">
+        <v>14</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.738905257522622</v>
+        <v>0.6108548533673326</v>
       </c>
       <c r="C157">
-        <v>-0.5364753902153313</v>
+        <v>-0.3463306255372446</v>
       </c>
       <c r="D157">
-        <v>-1.746176265726345</v>
+        <v>-1.242912427678592</v>
+      </c>
+      <c r="E157">
+        <v>14</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.024122483321288</v>
+        <v>0.2056203056190484</v>
       </c>
       <c r="C158">
-        <v>-1.097566771409928</v>
+        <v>-0.6487219656632915</v>
       </c>
       <c r="D158">
-        <v>-0.3605774990222767</v>
+        <v>-0.5231619395499069</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.348420854811462</v>
+        <v>0.2770130301391426</v>
       </c>
       <c r="C159">
-        <v>-0.7124615434256477</v>
+        <v>-0.4142440311982445</v>
       </c>
       <c r="D159">
-        <v>-1.230170918353975</v>
+        <v>-0.8703717644349209</v>
+      </c>
+      <c r="E159">
+        <v>14</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.138860970386387</v>
+        <v>0.2456691697736768</v>
       </c>
       <c r="C160">
-        <v>-0.4904743730405634</v>
+        <v>-0.3223039707378658</v>
       </c>
       <c r="D160">
-        <v>-1.080701976246357</v>
+        <v>-0.8525111483831862</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.2890313159052607</v>
+        <v>-0.2133718629264842</v>
       </c>
       <c r="C161">
-        <v>-0.333802118288266</v>
+        <v>-0.2771783523990998</v>
       </c>
       <c r="D161">
-        <v>-0.7308406195095146</v>
+        <v>-0.5435921926278958</v>
+      </c>
+      <c r="E161">
+        <v>14</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3134,13 +3605,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.840073123256462</v>
+        <v>0.1932234663576864</v>
       </c>
       <c r="C162">
-        <v>-0.5584165851723304</v>
+        <v>-0.3376918557429037</v>
       </c>
       <c r="D162">
-        <v>-1.077234020479054</v>
+        <v>-0.8536223491892843</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.096145483094982</v>
+        <v>-0.8237069415292195</v>
       </c>
       <c r="C163">
-        <v>0.7282893806127282</v>
+        <v>0.182304836465798</v>
       </c>
       <c r="D163">
-        <v>-0.1260087211065231</v>
+        <v>-0.3587927891800345</v>
+      </c>
+      <c r="E163">
+        <v>14</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -3168,16 +3645,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3132906922877576</v>
+        <v>-0.3877336704660258</v>
       </c>
       <c r="C164">
-        <v>-0.8789557697847458</v>
+        <v>-0.345234527303934</v>
       </c>
       <c r="D164">
-        <v>-0.09972809990120071</v>
+        <v>-0.3475523035350996</v>
+      </c>
+      <c r="E164">
+        <v>14</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.066241138417342</v>
+        <v>0.3266763920642717</v>
       </c>
       <c r="C165">
-        <v>-0.4416104043328358</v>
+        <v>-0.2638329196648633</v>
       </c>
       <c r="D165">
-        <v>-1.301772429312711</v>
+        <v>-1.039054626797866</v>
+      </c>
+      <c r="E165">
+        <v>14</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9572411425062639</v>
+        <v>0.4857264429594924</v>
       </c>
       <c r="C166">
-        <v>-0.2361220265026628</v>
+        <v>-0.4352113457213402</v>
       </c>
       <c r="D166">
-        <v>-1.525304159184004</v>
+        <v>-1.060316131276333</v>
+      </c>
+      <c r="E166">
+        <v>14</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.142546305188218</v>
+        <v>0.3123983564818989</v>
       </c>
       <c r="C167">
-        <v>-0.6813225995682615</v>
+        <v>-0.3269058197448147</v>
       </c>
       <c r="D167">
-        <v>-1.038673079229525</v>
+        <v>-1.014094501040946</v>
+      </c>
+      <c r="E167">
+        <v>14</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.506569311288106</v>
+        <v>0.3773101662718896</v>
       </c>
       <c r="C168">
-        <v>-0.3885997558768198</v>
+        <v>-0.1343207629448405</v>
       </c>
       <c r="D168">
-        <v>-1.692547850555925</v>
+        <v>-1.216909644862494</v>
+      </c>
+      <c r="E168">
+        <v>14</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.915738578094164</v>
+        <v>0.3926560349294516</v>
       </c>
       <c r="C169">
-        <v>-0.9874582260779419</v>
+        <v>-0.2240110851542932</v>
       </c>
       <c r="D169">
-        <v>-1.290318296814186</v>
+        <v>-1.148651947322302</v>
+      </c>
+      <c r="E169">
+        <v>14</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2.102754475933537</v>
+        <v>0.7124935828580474</v>
       </c>
       <c r="C170">
-        <v>-0.9185357078949696</v>
+        <v>-0.6215168144208508</v>
       </c>
       <c r="D170">
-        <v>-1.477768246964733</v>
+        <v>-0.9898821753845408</v>
+      </c>
+      <c r="E170">
+        <v>14</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.272607498478003</v>
+        <v>0.2642731223344254</v>
       </c>
       <c r="C171">
-        <v>-0.453870720266689</v>
+        <v>-0.1085736067842043</v>
       </c>
       <c r="D171">
-        <v>-1.392237353403786</v>
+        <v>-1.121808330630453</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.074067805414393</v>
+        <v>0.3203879205345355</v>
       </c>
       <c r="C172">
-        <v>-0.80090399389234</v>
+        <v>-0.4595942211291507</v>
       </c>
       <c r="D172">
-        <v>-0.6084160108146122</v>
+        <v>-0.7820374349270435</v>
+      </c>
+      <c r="E172">
+        <v>14</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9174526924813462</v>
+        <v>0.1057069384657879</v>
       </c>
       <c r="C173">
-        <v>-0.2973699542560568</v>
+        <v>-0.08884535275991795</v>
       </c>
       <c r="D173">
-        <v>-1.228606432559435</v>
+        <v>-1.056722346076115</v>
+      </c>
+      <c r="E173">
+        <v>14</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.8267398438926177</v>
+        <v>0.3787689592568894</v>
       </c>
       <c r="C174">
-        <v>-0.3905376648385934</v>
+        <v>-0.01353496709392867</v>
       </c>
       <c r="D174">
-        <v>-1.484679999003825</v>
+        <v>-1.392500418731333</v>
+      </c>
+      <c r="E174">
+        <v>14</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1671073522779158</v>
+        <v>0.04828108057875588</v>
       </c>
       <c r="C175">
-        <v>0.04420373652732479</v>
+        <v>-0.01563448203869602</v>
       </c>
       <c r="D175">
-        <v>-0.9313440116416977</v>
+        <v>-1.035375070183087</v>
+      </c>
+      <c r="E175">
+        <v>14</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3651270857890753</v>
+        <v>-0.1471050476779859</v>
       </c>
       <c r="C176">
-        <v>-0.2972463233031099</v>
+        <v>-0.1787114508319854</v>
       </c>
       <c r="D176">
-        <v>-0.9980256134552744</v>
+        <v>-0.7363955966354031</v>
+      </c>
+      <c r="E176">
+        <v>14</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.123602268141045</v>
+        <v>0.2425177278669816</v>
       </c>
       <c r="C177">
-        <v>-0.6257194054473614</v>
+        <v>-0.4355336902133904</v>
       </c>
       <c r="D177">
-        <v>-1.020899011244403</v>
+        <v>-0.8291803774037809</v>
+      </c>
+      <c r="E177">
+        <v>14</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.640067439412848</v>
+        <v>0.3733547063407879</v>
       </c>
       <c r="C178">
-        <v>-1.404730667889669</v>
+        <v>-0.6984659974276481</v>
       </c>
       <c r="D178">
-        <v>-0.7293974417848548</v>
+        <v>-0.7419305487148333</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.7323536824869843</v>
+        <v>0.1439522837143972</v>
       </c>
       <c r="C179">
-        <v>-1.057416026293814</v>
+        <v>-0.5778978625905737</v>
       </c>
       <c r="D179">
-        <v>-0.6603499884643858</v>
+        <v>-0.6285305629970436</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.895069221318188</v>
+        <v>0.4675919600180035</v>
       </c>
       <c r="C180">
-        <v>-0.8923032184789206</v>
+        <v>-0.4118208974012063</v>
       </c>
       <c r="D180">
-        <v>-1.117183715348271</v>
+        <v>-1.024428169701397</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.2047395746391669</v>
+        <v>-0.5714863385090363</v>
       </c>
       <c r="C181">
-        <v>0.001436712103220716</v>
+        <v>-0.1079259178278578</v>
       </c>
       <c r="D181">
-        <v>-1.172935422878786</v>
+        <v>-0.4548131674216664</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4734661430468365</v>
+        <v>-0.04290191635859281</v>
       </c>
       <c r="C182">
-        <v>-0.2570053677192135</v>
+        <v>-0.2339461306882938</v>
       </c>
       <c r="D182">
-        <v>-1.068991223913066</v>
+        <v>-0.7488651813468636</v>
+      </c>
+      <c r="E182">
+        <v>14</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.04100300533428691</v>
+        <v>-0.5103537163625644</v>
       </c>
       <c r="C183">
-        <v>-0.137505454738406</v>
+        <v>-0.1168141897697968</v>
       </c>
       <c r="D183">
-        <v>-0.9755036151141118</v>
+        <v>-0.4310277348283547</v>
+      </c>
+      <c r="E183">
+        <v>14</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5218138646572328</v>
+        <v>-0.1222783549520085</v>
       </c>
       <c r="C184">
-        <v>-0.4562589908406272</v>
+        <v>-0.3266649696415865</v>
       </c>
       <c r="D184">
-        <v>-0.7984855531014058</v>
+        <v>-0.553277020984009</v>
+      </c>
+      <c r="E184">
+        <v>14</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.546707921031265</v>
+        <v>0.3218286289722575</v>
       </c>
       <c r="C185">
-        <v>-0.8175286528032226</v>
+        <v>-0.5013691715349108</v>
       </c>
       <c r="D185">
-        <v>-1.193345419244569</v>
+        <v>-0.7893846180258663</v>
+      </c>
+      <c r="E185">
+        <v>14</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.664527548925097</v>
+        <v>0.5012076759963808</v>
       </c>
       <c r="C186">
-        <v>-0.6539847197665226</v>
+        <v>-0.4798114694211844</v>
       </c>
       <c r="D186">
-        <v>-1.701260879659717</v>
+        <v>-0.9916734620831007</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.6900511782874688</v>
+        <v>0.06706774746044719</v>
       </c>
       <c r="C187">
-        <v>-0.7954984918095898</v>
+        <v>-0.4845302936504146</v>
       </c>
       <c r="D187">
-        <v>-0.9039994175446828</v>
+        <v>-0.6022890024739308</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.2183503473248514</v>
+        <v>0.05635280158903708</v>
       </c>
       <c r="C188">
-        <v>-0.2350730984152574</v>
+        <v>-0.433554402711349</v>
       </c>
       <c r="D188">
-        <v>-0.878244886134861</v>
+        <v>-0.5736828689787101</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3998028443419459</v>
+        <v>-0.249203361648479</v>
       </c>
       <c r="C189">
-        <v>-0.4228097724397862</v>
+        <v>-0.3898557098312552</v>
       </c>
       <c r="D189">
-        <v>-1.082425891486626</v>
+        <v>-0.4068859136377598</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5166909476052965</v>
+        <v>-0.04055737492151024</v>
       </c>
       <c r="C190">
-        <v>-0.8997270906640754</v>
+        <v>-0.4538747907047935</v>
       </c>
       <c r="D190">
-        <v>-0.9551337398041234</v>
+        <v>-0.552340177871512</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1781078417367806</v>
+        <v>-0.1073602264602219</v>
       </c>
       <c r="C191">
-        <v>-0.3577463665336885</v>
+        <v>-0.3005464668210938</v>
       </c>
       <c r="D191">
-        <v>-0.7800984169640692</v>
+        <v>-0.5664661228092797</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5144634710813898</v>
+        <v>0.2295866235966797</v>
       </c>
       <c r="C192">
-        <v>-0.4751474533792917</v>
+        <v>-0.4222282687522442</v>
       </c>
       <c r="D192">
-        <v>-0.9794507562493224</v>
+        <v>-0.7792763454548952</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1581331267610873</v>
+        <v>-0.02040643714867063</v>
       </c>
       <c r="C193">
-        <v>0.2227090004662594</v>
+        <v>-0.02267934756465251</v>
       </c>
       <c r="D193">
-        <v>-1.597141436081539</v>
+        <v>-0.958173822041443</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.1671021178388378</v>
+        <v>-0.1969505392878104</v>
       </c>
       <c r="C194">
-        <v>-0.06396471426806211</v>
+        <v>-0.2926903265433363</v>
       </c>
       <c r="D194">
-        <v>-1.551254930863684</v>
+        <v>-0.5922071424419602</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.4821663639564326</v>
+        <v>-0.5779691912401637</v>
       </c>
       <c r="C195">
-        <v>-0.6566070877665865</v>
+        <v>-0.8402260901404014</v>
       </c>
       <c r="D195">
-        <v>-0.1219452061103556</v>
+        <v>0.2882242698060109</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.4478077914633923</v>
+        <v>-0.8536656003489671</v>
       </c>
       <c r="C196">
-        <v>-0.1126233199001834</v>
+        <v>-0.3022624247380743</v>
       </c>
       <c r="D196">
-        <v>-0.7073914068114613</v>
+        <v>-0.04317770772310503</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.2754284329862556</v>
+        <v>0.1685996840735223</v>
       </c>
       <c r="C197">
-        <v>-0.01898897133883348</v>
+        <v>-0.3472496235500653</v>
       </c>
       <c r="D197">
-        <v>-1.359169066495686</v>
+        <v>-0.8141542361828948</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.7364488681141785</v>
+        <v>-0.7067507500395144</v>
       </c>
       <c r="C198">
-        <v>0.1352044016698158</v>
+        <v>0.009104215529258733</v>
       </c>
       <c r="D198">
-        <v>-0.6142133476361203</v>
+        <v>-0.3805715726678894</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,16 +4345,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3267606519539277</v>
+        <v>-0.2979613345713963</v>
       </c>
       <c r="C199">
-        <v>-0.8206609366957023</v>
+        <v>-0.7267482014332846</v>
       </c>
       <c r="D199">
-        <v>-0.6039170847653569</v>
+        <v>-0.03995363747348102</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.196044955657443</v>
+        <v>0.5001241807927763</v>
       </c>
       <c r="C200">
-        <v>-0.4484655601805849</v>
+        <v>-0.3751761929109076</v>
       </c>
       <c r="D200">
-        <v>-1.598640540691929</v>
+        <v>-1.082201055836794</v>
+      </c>
+      <c r="E200">
+        <v>15</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.09016602736519608</v>
+        <v>-0.4138152184448927</v>
       </c>
       <c r="C201">
-        <v>-0.1667237893298945</v>
+        <v>-0.2219688485820925</v>
       </c>
       <c r="D201">
-        <v>-1.170540127655635</v>
+        <v>-0.4692224093025325</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.014986621142636</v>
+        <v>0.03184605674617058</v>
       </c>
       <c r="C202">
-        <v>-0.2571572441892969</v>
+        <v>-0.2574118231451882</v>
       </c>
       <c r="D202">
-        <v>-1.269057092467164</v>
+        <v>-0.750438640356516</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,16 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.1593788833583347</v>
+        <v>-0.2913363477693818</v>
       </c>
       <c r="C203">
-        <v>-0.08555004761778673</v>
+        <v>-0.3744979836527544</v>
       </c>
       <c r="D203">
-        <v>-0.8707339907645746</v>
+        <v>-0.3689630082250573</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3848,16 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2031681549173004</v>
+        <v>-0.4334706327968502</v>
       </c>
       <c r="C204">
-        <v>-0.1700486903452536</v>
+        <v>-0.2165481576254544</v>
       </c>
       <c r="D204">
-        <v>-1.035652018825121</v>
+        <v>-0.3961615031713812</v>
+      </c>
+      <c r="E204">
+        <v>15</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.272504197737588</v>
+        <v>0.07936429639948023</v>
       </c>
       <c r="C205">
-        <v>-0.2389982229035222</v>
+        <v>-0.2726498115077234</v>
       </c>
       <c r="D205">
-        <v>-1.138468628931268</v>
+        <v>-0.8229418404388689</v>
+      </c>
+      <c r="E205">
+        <v>15</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.4703876154523505</v>
+        <v>-0.2831227546493964</v>
       </c>
       <c r="C206">
-        <v>0.327706005379211</v>
+        <v>-0.2200842900254485</v>
       </c>
       <c r="D206">
-        <v>-1.143734102429554</v>
+        <v>-0.56877701357598</v>
+      </c>
+      <c r="E206">
+        <v>15</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.7887897198987657</v>
+        <v>-0.09874975122696933</v>
       </c>
       <c r="C207">
-        <v>-0.5412952893708194</v>
+        <v>-0.2013495307757275</v>
       </c>
       <c r="D207">
-        <v>-0.9619424548040039</v>
+        <v>-0.7397225077441909</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -3916,16 +4525,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.6054664194022182</v>
+        <v>-0.7275298611128822</v>
       </c>
       <c r="C208">
-        <v>-0.1659611355090395</v>
+        <v>-0.4437383492380763</v>
       </c>
       <c r="D208">
-        <v>-0.2203104036627918</v>
+        <v>0.09123330273051233</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.6963686246349463</v>
+        <v>0.3013578372880579</v>
       </c>
       <c r="C209">
-        <v>-0.3758616933444385</v>
+        <v>-0.3342176839934626</v>
       </c>
       <c r="D209">
-        <v>-0.9444470665979467</v>
+        <v>-0.9312228024574247</v>
+      </c>
+      <c r="E209">
+        <v>15</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.758288762222523</v>
+        <v>0.07618004175677154</v>
       </c>
       <c r="C210">
-        <v>-0.7524998940977375</v>
+        <v>-0.519523409253037</v>
       </c>
       <c r="D210">
-        <v>-1.713888435230813</v>
+        <v>-0.5901198930973476</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.527625386868164</v>
+        <v>-0.6584722951618136</v>
       </c>
       <c r="C211">
-        <v>0.2780952266813618</v>
+        <v>-0.4184827019904409</v>
       </c>
       <c r="D211">
-        <v>-0.6073924279298024</v>
+        <v>0.01321223932279492</v>
+      </c>
+      <c r="E211">
+        <v>15</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6323258506588125</v>
+        <v>-0.252109162154993</v>
       </c>
       <c r="C212">
-        <v>-0.7350237856571737</v>
+        <v>-0.3676028162443892</v>
       </c>
       <c r="D212">
-        <v>-0.9473180401189611</v>
+        <v>-0.3906415198381613</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.6655609877493742</v>
+        <v>0.1238726249896706</v>
       </c>
       <c r="C213">
-        <v>-0.171152484064424</v>
+        <v>-0.2038443580347357</v>
       </c>
       <c r="D213">
-        <v>-1.57067750230721</v>
+        <v>-0.9448545603462879</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4665706182929066</v>
+        <v>0.5475146331470463</v>
       </c>
       <c r="C214">
-        <v>-0.4551271276510296</v>
+        <v>-0.6164080293365384</v>
       </c>
       <c r="D214">
-        <v>-1.137216036877316</v>
+        <v>-0.8348027652847131</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9606361185001069</v>
+        <v>0.3341251369501805</v>
       </c>
       <c r="C215">
-        <v>-0.3884732725885804</v>
+        <v>-0.3634720106754323</v>
       </c>
       <c r="D215">
-        <v>-1.364727138481536</v>
+        <v>-0.9215043846913449</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4730496566728741</v>
+        <v>-0.207770968350025</v>
       </c>
       <c r="C216">
-        <v>-0.3122648304780359</v>
+        <v>-0.3289725499975811</v>
       </c>
       <c r="D216">
-        <v>-0.9511981797597345</v>
+        <v>-0.4933237438898377</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5525415425300289</v>
+        <v>0.2568524869016803</v>
       </c>
       <c r="C217">
-        <v>-0.1399292250045733</v>
+        <v>-0.3218468198544425</v>
       </c>
       <c r="D217">
-        <v>-1.396349880259079</v>
+        <v>-0.9241852811247627</v>
+      </c>
+      <c r="E217">
+        <v>15</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6116657843525926</v>
+        <v>0.201334500230837</v>
       </c>
       <c r="C218">
-        <v>-0.3919321848517119</v>
+        <v>-0.4412116645968109</v>
       </c>
       <c r="D218">
-        <v>-0.8813235482774909</v>
+        <v>-0.7107838687534824</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.009439005851080706</v>
+        <v>0.147638581892358</v>
       </c>
       <c r="C219">
-        <v>-0.362174295638816</v>
+        <v>-0.5712664752554262</v>
       </c>
       <c r="D219">
-        <v>-0.820603964403295</v>
+        <v>-0.5444505846512554</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-2.215773747376253</v>
+        <v>-1.25218364894107</v>
       </c>
       <c r="C220">
-        <v>-0.9782289881499816</v>
+        <v>-0.3584858542664325</v>
       </c>
       <c r="D220">
-        <v>1.221897111307562</v>
+        <v>0.453674677061831</v>
+      </c>
+      <c r="E220">
+        <v>16</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-1.828446895291205</v>
+        <v>-1.085770974231394</v>
       </c>
       <c r="C221">
-        <v>-1.275787698768359</v>
+        <v>-0.4100968373675387</v>
       </c>
       <c r="D221">
-        <v>1.203803020064934</v>
+        <v>0.3588387261269113</v>
+      </c>
+      <c r="E221">
+        <v>16</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-2.187894065169547</v>
+        <v>-1.074388198630994</v>
       </c>
       <c r="C222">
-        <v>-1.01974713298371</v>
+        <v>-0.3040041234888827</v>
       </c>
       <c r="D222">
-        <v>1.368094154508151</v>
+        <v>0.3061578489618682</v>
+      </c>
+      <c r="E222">
+        <v>16</v>
       </c>
       <c r="F222">
         <v>2</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-2.278240382861345</v>
+        <v>-1.348551226899848</v>
       </c>
       <c r="C223">
-        <v>-1.232803882114205</v>
+        <v>-0.23050969604375</v>
       </c>
       <c r="D223">
-        <v>1.787192843527914</v>
+        <v>0.4580918816848805</v>
+      </c>
+      <c r="E223">
+        <v>16</v>
       </c>
       <c r="F223">
         <v>2</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-2.047616642896434</v>
+        <v>-0.7719782581390946</v>
       </c>
       <c r="C224">
-        <v>-1.441663326667506</v>
+        <v>-0.7461752963165907</v>
       </c>
       <c r="D224">
-        <v>1.524272070021977</v>
+        <v>0.4545281833238475</v>
+      </c>
+      <c r="E224">
+        <v>16</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-2.316873318698604</v>
+        <v>-1.280357732925572</v>
       </c>
       <c r="C225">
-        <v>-0.9236823047859071</v>
+        <v>-0.5457519398230124</v>
       </c>
       <c r="D225">
-        <v>1.417712265585549</v>
+        <v>0.6522325170452872</v>
+      </c>
+      <c r="E225">
+        <v>16</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-1.124622116538351</v>
+        <v>-0.888335370486236</v>
       </c>
       <c r="C226">
-        <v>-1.92849591476684</v>
+        <v>-0.749308935364847</v>
       </c>
       <c r="D226">
-        <v>1.556753121721978</v>
+        <v>0.458891489641164</v>
+      </c>
+      <c r="E226">
+        <v>16</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-1.674279373104353</v>
+        <v>-0.7656483706000592</v>
       </c>
       <c r="C227">
-        <v>-0.910150436901541</v>
+        <v>-0.2651658579463644</v>
       </c>
       <c r="D227">
-        <v>0.8461141506206972</v>
+        <v>-0.03883873989634057</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-2.305832983472103</v>
+        <v>-1.26194688036404</v>
       </c>
       <c r="C228">
-        <v>-1.109719875321811</v>
+        <v>-0.4162188503692921</v>
       </c>
       <c r="D228">
-        <v>1.713488125054262</v>
+        <v>0.5783144500759263</v>
+      </c>
+      <c r="E228">
+        <v>16</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-1.879343183472157</v>
+        <v>-1.277420219303462</v>
       </c>
       <c r="C229">
-        <v>-0.9385305762100162</v>
+        <v>-0.3206260201114823</v>
       </c>
       <c r="D229">
-        <v>1.266802384607791</v>
+        <v>0.4348462108808873</v>
+      </c>
+      <c r="E229">
+        <v>16</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-2.307994577156891</v>
+        <v>-1.492032125941959</v>
       </c>
       <c r="C230">
-        <v>-0.8858585553405465</v>
+        <v>-0.4618089274334862</v>
       </c>
       <c r="D230">
-        <v>1.318078628767459</v>
+        <v>0.7145175826469643</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-1.913152579684093</v>
+        <v>-1.107154304557991</v>
       </c>
       <c r="C231">
-        <v>-0.9999194276717697</v>
+        <v>-0.4432023414927341</v>
       </c>
       <c r="D231">
-        <v>1.150604868543612</v>
+        <v>0.4299830938615197</v>
+      </c>
+      <c r="E231">
+        <v>16</v>
       </c>
       <c r="F231">
         <v>2</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-2.005078122818107</v>
+        <v>-1.107894067745519</v>
       </c>
       <c r="C232">
-        <v>-0.9564247178133454</v>
+        <v>-0.2992423145786565</v>
       </c>
       <c r="D232">
-        <v>1.10282108871368</v>
+        <v>0.2799776275347776</v>
+      </c>
+      <c r="E232">
+        <v>16</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-1.767386147413843</v>
+        <v>-0.8826275488421815</v>
       </c>
       <c r="C233">
-        <v>-0.8481381180960673</v>
+        <v>-0.2503739452879027</v>
       </c>
       <c r="D233">
-        <v>1.006537789092</v>
+        <v>0.07804793639057306</v>
+      </c>
+      <c r="E233">
+        <v>16</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-2.204786933220861</v>
+        <v>-1.077681707610657</v>
       </c>
       <c r="C234">
-        <v>-1.139872373944592</v>
+        <v>-0.4908651835293026</v>
       </c>
       <c r="D234">
-        <v>1.132860163926224</v>
+        <v>0.3746904891487135</v>
+      </c>
+      <c r="E234">
+        <v>16</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-2.355410096061873</v>
+        <v>-1.312739496356163</v>
       </c>
       <c r="C235">
-        <v>-0.7990633758717605</v>
+        <v>-0.2204624888562219</v>
       </c>
       <c r="D235">
-        <v>1.397948764320007</v>
+        <v>0.4024976821089463</v>
+      </c>
+      <c r="E235">
+        <v>16</v>
       </c>
       <c r="F235">
         <v>2</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-2.311990422596446</v>
+        <v>-1.243971761064987</v>
       </c>
       <c r="C236">
-        <v>-0.6842069401379791</v>
+        <v>-0.15957702045956</v>
       </c>
       <c r="D236">
-        <v>1.222312630062686</v>
+        <v>0.321282469183497</v>
+      </c>
+      <c r="E236">
+        <v>16</v>
       </c>
       <c r="F236">
         <v>2</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.8362996802198764</v>
+        <v>-0.7820347880277336</v>
       </c>
       <c r="C237">
-        <v>-2.224198900752736</v>
+        <v>-0.9383770607694288</v>
       </c>
       <c r="D237">
-        <v>1.485926055767537</v>
+        <v>0.5734372423980489</v>
+      </c>
+      <c r="E237">
+        <v>16</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-2.48587131776668</v>
+        <v>-1.361050734920323</v>
       </c>
       <c r="C238">
-        <v>-0.4199202300495928</v>
+        <v>-0.2537767544258649</v>
       </c>
       <c r="D238">
-        <v>1.211926146692581</v>
+        <v>0.4728521123933778</v>
+      </c>
+      <c r="E238">
+        <v>17</v>
       </c>
       <c r="F238">
         <v>2</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.48955363512759</v>
+        <v>0.1606274641282354</v>
       </c>
       <c r="C239">
-        <v>-1.438050324244346</v>
+        <v>-1.101437874929837</v>
       </c>
       <c r="D239">
-        <v>-0.6363769722307416</v>
+        <v>-0.2285444507788554</v>
+      </c>
+      <c r="E239">
+        <v>17</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,16 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.7894782666369964</v>
+        <v>-0.3473667194117614</v>
       </c>
       <c r="C240">
-        <v>-1.126006934122227</v>
+        <v>-0.2521965253624089</v>
       </c>
       <c r="D240">
-        <v>0.7332561575704739</v>
+        <v>-0.3464119799573432</v>
+      </c>
+      <c r="E240">
+        <v>17</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4477,16 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-1.239998187821997</v>
+        <v>-0.8891631188123423</v>
       </c>
       <c r="C241">
-        <v>-0.6367465457379136</v>
+        <v>-0.0549521706064359</v>
       </c>
       <c r="D241">
-        <v>0.5729826662585387</v>
+        <v>-0.139977446797557</v>
+      </c>
+      <c r="E241">
+        <v>17</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-1.79907902526244</v>
+        <v>-1.097687832514407</v>
       </c>
       <c r="C242">
-        <v>-1.065971714017546</v>
+        <v>-0.4308457001494605</v>
       </c>
       <c r="D242">
-        <v>1.586976184440384</v>
+        <v>0.3796181181093314</v>
+      </c>
+      <c r="E242">
+        <v>17</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-1.257706129003205</v>
+        <v>-0.7400925361627579</v>
       </c>
       <c r="C243">
-        <v>-0.7882464769586989</v>
+        <v>-0.4467907194290084</v>
       </c>
       <c r="D243">
-        <v>1.015766193719177</v>
+        <v>0.1816832654085505</v>
+      </c>
+      <c r="E243">
+        <v>17</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -4528,16 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-2.047181456576632</v>
+        <v>-1.068908105433899</v>
       </c>
       <c r="C244">
-        <v>0.143674098697106</v>
+        <v>0.03470656126831648</v>
       </c>
       <c r="D244">
-        <v>0.5635493484751686</v>
+        <v>-0.06687433018109923</v>
+      </c>
+      <c r="E244">
+        <v>17</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-2.397681477278109</v>
+        <v>-1.640279099065148</v>
       </c>
       <c r="C245">
-        <v>-0.9869752637485266</v>
+        <v>-0.2973452156327003</v>
       </c>
       <c r="D245">
-        <v>1.691800528241443</v>
+        <v>0.7415834087121516</v>
+      </c>
+      <c r="E245">
+        <v>17</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-1.823309382290167</v>
+        <v>-1.137791963649116</v>
       </c>
       <c r="C246">
-        <v>-0.5701262846186692</v>
+        <v>-0.1918333614345198</v>
       </c>
       <c r="D246">
-        <v>0.89605703174287</v>
+        <v>0.2160641302541415</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -4579,16 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-1.482680992696216</v>
+        <v>-1.022943069036584</v>
       </c>
       <c r="C247">
-        <v>-0.6647246768490075</v>
+        <v>0.01297960578821387</v>
       </c>
       <c r="D247">
-        <v>0.4917673323085225</v>
+        <v>-0.09253225540990018</v>
+      </c>
+      <c r="E247">
+        <v>17</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -4596,16 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-1.175593683983501</v>
+        <v>-0.8184899438266895</v>
       </c>
       <c r="C248">
-        <v>-0.8197026809487573</v>
+        <v>-0.07259253423187263</v>
       </c>
       <c r="D248">
-        <v>0.3080244920059129</v>
+        <v>-0.2101605961041808</v>
+      </c>
+      <c r="E248">
+        <v>17</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-2.301533734126103</v>
+        <v>-1.419522822617913</v>
       </c>
       <c r="C249">
-        <v>-0.7332574018783283</v>
+        <v>-0.453054507408484</v>
       </c>
       <c r="D249">
-        <v>1.281957625168076</v>
+        <v>0.7242589299732807</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-1.837544086413644</v>
+        <v>-1.279246967100237</v>
       </c>
       <c r="C250">
-        <v>-0.3330630045721427</v>
+        <v>-0.175134204362322</v>
       </c>
       <c r="D250">
-        <v>0.4155485219668944</v>
+        <v>0.2697588367012396</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.155042982789734</v>
+        <v>-0.9181828883066656</v>
       </c>
       <c r="C251">
-        <v>-0.6756919322750188</v>
+        <v>-0.2030264483757162</v>
       </c>
       <c r="D251">
-        <v>0.3407444193276842</v>
+        <v>0.02480373866187979</v>
+      </c>
+      <c r="E251">
+        <v>17</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-1.608961170193929</v>
+        <v>-1.220753371376299</v>
       </c>
       <c r="C252">
-        <v>-1.042804267156876</v>
+        <v>-0.3360031923386477</v>
       </c>
       <c r="D252">
-        <v>1.044872681347812</v>
+        <v>0.4247643704897364</v>
+      </c>
+      <c r="E252">
+        <v>17</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-2.083355119277053</v>
+        <v>-1.075124576392876</v>
       </c>
       <c r="C253">
-        <v>-0.617486060608351</v>
+        <v>-0.2383356566127705</v>
       </c>
       <c r="D253">
-        <v>0.8372107712388001</v>
+        <v>0.2026921658633054</v>
+      </c>
+      <c r="E253">
+        <v>17</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-1.86839041222111</v>
+        <v>-1.564989951979537</v>
       </c>
       <c r="C254">
-        <v>-1.195669293597441</v>
+        <v>-0.348590260334557</v>
       </c>
       <c r="D254">
-        <v>1.412468783506444</v>
+        <v>0.6946027000288673</v>
+      </c>
+      <c r="E254">
+        <v>17</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-1.714716371249374</v>
+        <v>-1.07580342679041</v>
       </c>
       <c r="C255">
-        <v>-0.563495397536647</v>
+        <v>-0.2930929815250968</v>
       </c>
       <c r="D255">
-        <v>0.6877629026852808</v>
+        <v>0.2575033580989765</v>
+      </c>
+      <c r="E255">
+        <v>17</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-1.950443085190865</v>
+        <v>-1.372720747475846</v>
       </c>
       <c r="C256">
-        <v>-0.7908118956041127</v>
+        <v>-0.1938285397253203</v>
       </c>
       <c r="D256">
-        <v>1.191397590105059</v>
+        <v>0.4337525929066528</v>
+      </c>
+      <c r="E256">
+        <v>17</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-1.77934143746932</v>
+        <v>-1.127130428134576</v>
       </c>
       <c r="C257">
-        <v>-0.5200193326562739</v>
+        <v>-0.04589873505787875</v>
       </c>
       <c r="D257">
-        <v>0.6921283843849051</v>
+        <v>0.03365220531480984</v>
+      </c>
+      <c r="E257">
+        <v>17</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-1.046312745764118</v>
+        <v>-0.8047160354699321</v>
       </c>
       <c r="C258">
-        <v>-0.9768243592974606</v>
+        <v>-0.2456734773564142</v>
       </c>
       <c r="D258">
-        <v>0.6849490092764819</v>
+        <v>-0.05273284436687087</v>
+      </c>
+      <c r="E258">
+        <v>17</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -4783,13 +5545,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-1.028083983868128</v>
+        <v>-0.9564699364347193</v>
       </c>
       <c r="C259">
-        <v>-1.546322614444678</v>
+        <v>-0.4102945523217627</v>
       </c>
       <c r="D259">
-        <v>0.8118775362730356</v>
+        <v>0.1973661411552763</v>
+      </c>
+      <c r="E259">
+        <v>17</v>
       </c>
       <c r="F259">
         <v>2</v>
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-1.291376815676166</v>
+        <v>-0.9822049279030027</v>
       </c>
       <c r="C260">
-        <v>-1.417585538786539</v>
+        <v>-0.3800478662826394</v>
       </c>
       <c r="D260">
-        <v>1.136594028656357</v>
+        <v>0.2362382462227288</v>
+      </c>
+      <c r="E260">
+        <v>17</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.3146954668909813</v>
+        <v>-0.5428382460523673</v>
       </c>
       <c r="C261">
-        <v>-1.430865337719001</v>
+        <v>-0.5169752580816138</v>
       </c>
       <c r="D261">
-        <v>0.5692118162303712</v>
+        <v>-0.02408270764681242</v>
+      </c>
+      <c r="E261">
+        <v>17</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-1.886196938073914</v>
+        <v>-1.481713562766146</v>
       </c>
       <c r="C262">
-        <v>-0.5174664900957536</v>
+        <v>0.01211433816321755</v>
       </c>
       <c r="D262">
-        <v>0.7838377825229697</v>
+        <v>0.3326845401693614</v>
+      </c>
+      <c r="E262">
+        <v>17</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-1.304531440620373</v>
+        <v>-1.032307805163043</v>
       </c>
       <c r="C263">
-        <v>-0.6167599417061939</v>
+        <v>-0.4019941475181397</v>
       </c>
       <c r="D263">
-        <v>0.3052412272044991</v>
+        <v>0.2789507012981431</v>
+      </c>
+      <c r="E263">
+        <v>17</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -4868,16 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-2.071230878444841</v>
+        <v>-1.424836378625018</v>
       </c>
       <c r="C264">
-        <v>0.2528942408825865</v>
+        <v>-0.03530935230962137</v>
       </c>
       <c r="D264">
-        <v>0.2251095748549646</v>
+        <v>0.208493791095989</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.6091218258810631</v>
+        <v>-0.5951411181448688</v>
       </c>
       <c r="C265">
-        <v>-0.6063914684898912</v>
+        <v>-0.3725313811396943</v>
       </c>
       <c r="D265">
-        <v>-0.1463026959414278</v>
+        <v>-0.0905583838144326</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -4902,16 +5685,19 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.8298123201330612</v>
+        <v>-0.5304483750536965</v>
       </c>
       <c r="C266">
-        <v>-0.3214344060938554</v>
+        <v>-0.3323394548602804</v>
       </c>
       <c r="D266">
-        <v>-0.5163080125382054</v>
+        <v>-0.1958022371445964</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.2874758968003456</v>
+        <v>-0.2100879014931799</v>
       </c>
       <c r="C267">
-        <v>0.2335888951684459</v>
+        <v>-0.1839153946056905</v>
       </c>
       <c r="D267">
-        <v>-1.007760133444844</v>
+        <v>-0.6329615677520523</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.1446938305169413</v>
+        <v>-0.1483602225303293</v>
       </c>
       <c r="C268">
-        <v>-0.6299925834535409</v>
+        <v>-0.4478941638650827</v>
       </c>
       <c r="D268">
-        <v>-0.5150698187804033</v>
+        <v>-0.4240679790592151</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.1703967469560103</v>
+        <v>-0.1864089904858393</v>
       </c>
       <c r="C269">
-        <v>-0.5784352211079674</v>
+        <v>-0.3173386775883771</v>
       </c>
       <c r="D269">
-        <v>-0.5559464579622361</v>
+        <v>-0.5035976224393078</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -4970,13 +5765,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.4534600867113536</v>
+        <v>-0.5942255150752344</v>
       </c>
       <c r="C270">
-        <v>-0.758389760580144</v>
+        <v>-0.3620588438839651</v>
       </c>
       <c r="D270">
-        <v>-0.2321587848267592</v>
+        <v>-0.140951448959779</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
       </c>
       <c r="F270">
         <v>2</v>
@@ -4987,13 +5785,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.9612525232284141</v>
+        <v>-0.8743662151036014</v>
       </c>
       <c r="C271">
-        <v>-0.6314718912764987</v>
+        <v>-0.3455034719210763</v>
       </c>
       <c r="D271">
-        <v>0.3083943835425293</v>
+        <v>0.119513188481444</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
       </c>
       <c r="F271">
         <v>2</v>
@@ -5004,16 +5805,19 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.4043612660660602</v>
+        <v>-0.07335972935834861</v>
       </c>
       <c r="C272">
-        <v>-0.6240789021169808</v>
+        <v>-0.3457066970124106</v>
       </c>
       <c r="D272">
-        <v>-0.3296393577063005</v>
+        <v>-0.5640809239705149</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5021,16 +5825,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-1.117862193643136</v>
+        <v>-0.6206941641501075</v>
       </c>
       <c r="C273">
-        <v>-0.142284789446829</v>
+        <v>-0.3162349415229398</v>
       </c>
       <c r="D273">
-        <v>-0.3860669386583195</v>
+        <v>-0.126787289437756</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5038,16 +5845,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.05141033367293113</v>
+        <v>0.03804613903031639</v>
       </c>
       <c r="C274">
-        <v>-0.3445768366238149</v>
+        <v>-0.2539763435211295</v>
       </c>
       <c r="D274">
-        <v>-0.8847679878270517</v>
+        <v>-0.7779758836693003</v>
       </c>
       <c r="E274">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -5058,16 +5865,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.4997134860211842</v>
+        <v>-0.2858761498579524</v>
       </c>
       <c r="C275">
-        <v>-0.2040389958148506</v>
+        <v>-0.2263258723028559</v>
       </c>
       <c r="D275">
-        <v>-0.6910843558950538</v>
+        <v>-0.494069928469005</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -5078,16 +5885,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-0.1922234671123773</v>
+        <v>-0.4123413837213071</v>
       </c>
       <c r="C276">
-        <v>-0.8142709156479867</v>
+        <v>-0.4905939816586384</v>
       </c>
       <c r="D276">
-        <v>-0.1333392429845359</v>
+        <v>-0.141045446711263</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F276">
         <v>2</v>
@@ -5098,16 +5905,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.7449251128034178</v>
+        <v>-0.7338277501918138</v>
       </c>
       <c r="C277">
-        <v>-0.4742261393430766</v>
+        <v>-0.3529393387998214</v>
       </c>
       <c r="D277">
-        <v>-0.2030788771461519</v>
+        <v>-0.04077589302785212</v>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -5118,16 +5925,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.1975514132873807</v>
+        <v>-0.1306798088753902</v>
       </c>
       <c r="C278">
-        <v>-0.5378178577550287</v>
+        <v>-0.3783025956046617</v>
       </c>
       <c r="D278">
-        <v>-0.3686467416335634</v>
+        <v>-0.4639802983582174</v>
       </c>
       <c r="E278">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -5138,16 +5945,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-1.417663350977766</v>
+        <v>-1.234257648683437</v>
       </c>
       <c r="C279">
-        <v>-0.8743196043574235</v>
+        <v>-0.5816258541549196</v>
       </c>
       <c r="D279">
-        <v>0.8413651288170937</v>
+        <v>0.6572790360057161</v>
       </c>
       <c r="E279">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F279">
         <v>2</v>
@@ -5158,16 +5965,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.4350884966693842</v>
+        <v>-0.3894632684702694</v>
       </c>
       <c r="C280">
-        <v>-0.4125685584989013</v>
+        <v>-0.2851899668769951</v>
       </c>
       <c r="D280">
-        <v>-0.4453769576988119</v>
+        <v>-0.3479630714044906</v>
       </c>
       <c r="E280">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -5178,16 +5985,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.4308273870950066</v>
+        <v>-0.4329381078631982</v>
       </c>
       <c r="C281">
-        <v>-0.8707427598985497</v>
+        <v>-0.498054774454109</v>
       </c>
       <c r="D281">
-        <v>-0.02315787159965585</v>
+        <v>-0.1269874637800301</v>
       </c>
       <c r="E281">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -5198,19 +6005,19 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>-0.5636469010979274</v>
+        <v>-0.1340858713529086</v>
       </c>
       <c r="C282">
-        <v>-0.3266534241666468</v>
+        <v>-0.2965587244506021</v>
       </c>
       <c r="D282">
-        <v>-0.3966782734641665</v>
+        <v>-0.5323291757373717</v>
       </c>
       <c r="E282">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -5218,16 +6025,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.7668365163458787</v>
+        <v>-0.4313112485553363</v>
       </c>
       <c r="C283">
-        <v>-0.147054396089437</v>
+        <v>-0.1460294751015587</v>
       </c>
       <c r="D283">
-        <v>-0.4339720193478471</v>
+        <v>-0.4489128710018219</v>
       </c>
       <c r="E283">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -5238,19 +6045,19 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.6521326570141078</v>
+        <v>-0.4101304120156141</v>
       </c>
       <c r="C284">
-        <v>-0.396334433730431</v>
+        <v>-0.2501868133634684</v>
       </c>
       <c r="D284">
-        <v>-0.1528168934953796</v>
+        <v>-0.3321728149741978</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -5258,16 +6065,16 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-2.073121367275967</v>
+        <v>-1.826795414191886</v>
       </c>
       <c r="C285">
-        <v>-0.3359247366165441</v>
+        <v>0.1747220185423632</v>
       </c>
       <c r="D285">
-        <v>0.7148628048541806</v>
+        <v>0.3310842109132979</v>
       </c>
       <c r="E285">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F285">
         <v>2</v>
@@ -5278,16 +6085,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-1.085177974024534</v>
+        <v>-0.8040351507489956</v>
       </c>
       <c r="C286">
-        <v>-1.13016961794787</v>
+        <v>-0.428860602897916</v>
       </c>
       <c r="D286">
-        <v>0.6214317419475861</v>
+        <v>0.1289349635580122</v>
       </c>
       <c r="E286">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F286">
         <v>2</v>
@@ -5298,16 +6105,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-1.798306717400018</v>
+        <v>-0.868498447095059</v>
       </c>
       <c r="C287">
-        <v>-0.8701618597620766</v>
+        <v>-0.5892443731486915</v>
       </c>
       <c r="D287">
-        <v>0.9922658081898659</v>
+        <v>0.3871387854942341</v>
       </c>
       <c r="E287">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F287">
         <v>2</v>
@@ -5318,16 +6125,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-1.26122973377176</v>
+        <v>-0.9020421592634926</v>
       </c>
       <c r="C288">
-        <v>-0.5867608469859754</v>
+        <v>-0.3166808391574156</v>
       </c>
       <c r="D288">
-        <v>0.4446144002723741</v>
+        <v>0.09862355802586054</v>
       </c>
       <c r="E288">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F288">
         <v>2</v>
@@ -5338,16 +6145,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-2.283951191808897</v>
+        <v>-1.448744464910254</v>
       </c>
       <c r="C289">
-        <v>-0.8397236205532462</v>
+        <v>-0.3205840793991575</v>
       </c>
       <c r="D289">
-        <v>1.129009334422735</v>
+        <v>0.5304568837960038</v>
       </c>
       <c r="E289">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F289">
         <v>2</v>
@@ -5358,16 +6165,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-1.166655466083382</v>
+        <v>-0.8887429355463585</v>
       </c>
       <c r="C290">
-        <v>-0.455451634240827</v>
+        <v>-0.211016977509371</v>
       </c>
       <c r="D290">
-        <v>0.4349603561758134</v>
+        <v>0.0003810534717643144</v>
       </c>
       <c r="E290">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F290">
         <v>2</v>
@@ -5378,16 +6185,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-1.357914445749324</v>
+        <v>-0.6637546128212032</v>
       </c>
       <c r="C291">
-        <v>-0.9476820483949088</v>
+        <v>-0.4790308734418922</v>
       </c>
       <c r="D291">
-        <v>0.7510861947107434</v>
+        <v>0.08843779049995626</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F291">
         <v>2</v>
@@ -5398,16 +6205,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-1.679144925391312</v>
+        <v>-1.054524764495326</v>
       </c>
       <c r="C292">
-        <v>-1.060983314936735</v>
+        <v>-0.3947600898608742</v>
       </c>
       <c r="D292">
-        <v>1.015468849208114</v>
+        <v>0.3075395113611694</v>
       </c>
       <c r="E292">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F292">
         <v>2</v>
